--- a/paskaitu medziaga/namo skaiciuokle.xlsx
+++ b/paskaitu medziaga/namo skaiciuokle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>medziagos</t>
   </si>
@@ -36,10 +36,118 @@
     <t>pamato perimetras</t>
   </si>
   <si>
-    <t>pamato armatura</t>
-  </si>
-  <si>
     <t>10x8 m</t>
+  </si>
+  <si>
+    <t>paaiskinimas</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>D25, 14 vnt po 3 m</t>
+  </si>
+  <si>
+    <t>25 plocio*30 cm aukscio, ilgis pamato 36 m</t>
+  </si>
+  <si>
+    <t>armatura 12 ir 10 mm</t>
+  </si>
+  <si>
+    <t>pamato armatura 12</t>
+  </si>
+  <si>
+    <t>pamato armatura 10</t>
+  </si>
+  <si>
+    <t>sujungimu armatura 6</t>
+  </si>
+  <si>
+    <t>duju silikatas 25 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isores blokeliai </t>
+  </si>
+  <si>
+    <t>vidine nesanti blokeliu pertvara</t>
+  </si>
+  <si>
+    <t>polistirolas isores sienom</t>
+  </si>
+  <si>
+    <t>polistirolas grindims</t>
+  </si>
+  <si>
+    <t>15 mm storio</t>
+  </si>
+  <si>
+    <t>10 mm grindims</t>
+  </si>
+  <si>
+    <t>armavimo tinklas</t>
+  </si>
+  <si>
+    <t>betonavimas darbai</t>
+  </si>
+  <si>
+    <t>betonas grindims</t>
+  </si>
+  <si>
+    <t>gegnes 250x50, kubo kaina 150 e</t>
+  </si>
+  <si>
+    <t>mediena stogui gegnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediena stori brusai </t>
+  </si>
+  <si>
+    <t>150x150 24 m</t>
+  </si>
+  <si>
+    <t>bruseliai 50x50</t>
+  </si>
+  <si>
+    <t>50x50x440 m</t>
+  </si>
+  <si>
+    <t>stogo skarda</t>
+  </si>
+  <si>
+    <t>stogo vata</t>
+  </si>
+  <si>
+    <t>storis 30 cm</t>
+  </si>
+  <si>
+    <t>grindinis sildymo vamzdis</t>
+  </si>
+  <si>
+    <t>skaiciuota kas 10 cm</t>
+  </si>
+  <si>
+    <t>langai</t>
+  </si>
+  <si>
+    <t>kvadratas apie 70 e</t>
+  </si>
+  <si>
+    <t>vandens grezinys</t>
+  </si>
+  <si>
+    <t>grezimo kaina apie 30 e/m</t>
+  </si>
+  <si>
+    <t>valymo irenginys</t>
+  </si>
+  <si>
+    <t>valymo irenginys apie 1200 e</t>
+  </si>
+  <si>
+    <t>granulinis katilas</t>
+  </si>
+  <si>
+    <t>malku katilas</t>
   </si>
 </sst>
 </file>
@@ -379,18 +487,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,38 +510,428 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D29" si="0">B3*C3</f>
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>170</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>0.22</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>6.5</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>1.2</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>132</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>800</v>
+      </c>
+      <c r="C19">
+        <v>0.7</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>1200</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>SUM(D2:D36)</f>
+        <v>9677.6</v>
       </c>
     </row>
   </sheetData>
